--- a/Class_V/Half Yearly Exam -2023_class_V.xlsx
+++ b/Class_V/Half Yearly Exam -2023_class_V.xlsx
@@ -5830,16 +5830,16 @@
         <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E120" t="s">
         <v>18</v>
       </c>
       <c r="F120">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G120">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H120" t="s">
         <v>19</v>
@@ -5857,7 +5857,7 @@
         <v>12</v>
       </c>
       <c r="M120">
-        <v>15.0</v>
+        <v>30.5</v>
       </c>
       <c r="N120" t="s">
         <v>23</v>
@@ -5874,16 +5874,16 @@
         <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E121" t="s">
         <v>18</v>
       </c>
       <c r="F121">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G121">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H121" t="s">
         <v>19</v>
@@ -5901,7 +5901,7 @@
         <v>12</v>
       </c>
       <c r="M121">
-        <v>30.5</v>
+        <v>20.0</v>
       </c>
       <c r="N121" t="s">
         <v>23</v>
@@ -6050,7 +6050,7 @@
         <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E125" t="s">
         <v>18</v>
@@ -6077,10 +6077,10 @@
         <v>13</v>
       </c>
       <c r="M125">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="N125" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6094,7 +6094,7 @@
         <v>16</v>
       </c>
       <c r="D126" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E126" t="s">
         <v>18</v>
@@ -6121,7 +6121,7 @@
         <v>13</v>
       </c>
       <c r="M126">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="N126" t="s">
         <v>38</v>
@@ -6138,7 +6138,7 @@
         <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E127" t="s">
         <v>18</v>
@@ -6165,10 +6165,10 @@
         <v>13</v>
       </c>
       <c r="M127">
-        <v>2.0</v>
+        <v>30.0</v>
       </c>
       <c r="N127" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6182,7 +6182,7 @@
         <v>16</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E128" t="s">
         <v>18</v>
@@ -6209,7 +6209,7 @@
         <v>13</v>
       </c>
       <c r="M128">
-        <v>28.0</v>
+        <v>19.0</v>
       </c>
       <c r="N128" t="s">
         <v>38</v>
@@ -6358,16 +6358,16 @@
         <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E132" t="s">
         <v>18</v>
       </c>
       <c r="F132">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G132">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H132" t="s">
         <v>19</v>
@@ -6385,7 +6385,7 @@
         <v>14</v>
       </c>
       <c r="M132">
-        <v>40.0</v>
+        <v>39.5</v>
       </c>
       <c r="N132" t="s">
         <v>23</v>
@@ -6710,16 +6710,16 @@
         <v>16</v>
       </c>
       <c r="D140" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E140" t="s">
         <v>18</v>
       </c>
       <c r="F140">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G140">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H140" t="s">
         <v>19</v>
@@ -6737,7 +6737,7 @@
         <v>14</v>
       </c>
       <c r="M140">
-        <v>39.5</v>
+        <v>40.0</v>
       </c>
       <c r="N140" t="s">
         <v>23</v>
@@ -7133,10 +7133,10 @@
         <v>15</v>
       </c>
       <c r="M149">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="N149" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7414,16 +7414,16 @@
         <v>16</v>
       </c>
       <c r="D156" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E156" t="s">
         <v>18</v>
       </c>
       <c r="F156">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G156">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H156" t="s">
         <v>19</v>
@@ -7441,7 +7441,7 @@
         <v>16</v>
       </c>
       <c r="M156">
-        <v>16.0</v>
+        <v>53.5</v>
       </c>
       <c r="N156" t="s">
         <v>23</v>
@@ -7458,16 +7458,16 @@
         <v>16</v>
       </c>
       <c r="D157" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E157" t="s">
         <v>18</v>
       </c>
       <c r="F157">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G157">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H157" t="s">
         <v>19</v>
@@ -7485,7 +7485,7 @@
         <v>16</v>
       </c>
       <c r="M157">
-        <v>15.0</v>
+        <v>37.5</v>
       </c>
       <c r="N157" t="s">
         <v>23</v>
@@ -7502,7 +7502,7 @@
         <v>16</v>
       </c>
       <c r="D158" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E158" t="s">
         <v>18</v>
@@ -7529,10 +7529,10 @@
         <v>16</v>
       </c>
       <c r="M158">
-        <v>53.5</v>
+        <v>28.0</v>
       </c>
       <c r="N158" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -7546,16 +7546,16 @@
         <v>16</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E159" t="s">
         <v>18</v>
       </c>
       <c r="F159">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G159">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H159" t="s">
         <v>19</v>
@@ -7573,10 +7573,10 @@
         <v>16</v>
       </c>
       <c r="M159">
-        <v>28.0</v>
+        <v>16.0</v>
       </c>
       <c r="N159" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -7590,16 +7590,16 @@
         <v>16</v>
       </c>
       <c r="D160" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E160" t="s">
         <v>18</v>
       </c>
       <c r="F160">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G160">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H160" t="s">
         <v>19</v>
@@ -7617,7 +7617,7 @@
         <v>16</v>
       </c>
       <c r="M160">
-        <v>37.5</v>
+        <v>15.0</v>
       </c>
       <c r="N160" t="s">
         <v>23</v>
@@ -7678,7 +7678,7 @@
         <v>16</v>
       </c>
       <c r="D162" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E162" t="s">
         <v>18</v>
@@ -7705,7 +7705,7 @@
         <v>17</v>
       </c>
       <c r="M162">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="N162" t="s">
         <v>23</v>
@@ -7722,16 +7722,16 @@
         <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E163" t="s">
         <v>18</v>
       </c>
       <c r="F163">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G163">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H163" t="s">
         <v>19</v>
@@ -7749,7 +7749,7 @@
         <v>17</v>
       </c>
       <c r="M163">
-        <v>21.0</v>
+        <v>48.0</v>
       </c>
       <c r="N163" t="s">
         <v>23</v>
@@ -7942,7 +7942,7 @@
         <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E168" t="s">
         <v>18</v>
@@ -7969,7 +7969,7 @@
         <v>17</v>
       </c>
       <c r="M168">
-        <v>38.0</v>
+        <v>45.5</v>
       </c>
       <c r="N168" t="s">
         <v>23</v>
@@ -7986,7 +7986,7 @@
         <v>16</v>
       </c>
       <c r="D169" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E169" t="s">
         <v>18</v>
@@ -8013,7 +8013,7 @@
         <v>17</v>
       </c>
       <c r="M169">
-        <v>45.5</v>
+        <v>38.0</v>
       </c>
       <c r="N169" t="s">
         <v>23</v>
@@ -8074,16 +8074,16 @@
         <v>16</v>
       </c>
       <c r="D171" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E171" t="s">
         <v>18</v>
       </c>
       <c r="F171">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G171">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H171" t="s">
         <v>19</v>
@@ -8101,7 +8101,7 @@
         <v>17</v>
       </c>
       <c r="M171">
-        <v>48.0</v>
+        <v>23.0</v>
       </c>
       <c r="N171" t="s">
         <v>23</v>
@@ -8162,16 +8162,16 @@
         <v>16</v>
       </c>
       <c r="D173" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E173" t="s">
         <v>18</v>
       </c>
       <c r="F173">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G173">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H173" t="s">
         <v>19</v>
@@ -8189,7 +8189,7 @@
         <v>18</v>
       </c>
       <c r="M173">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="N173" t="s">
         <v>38</v>
@@ -8206,7 +8206,7 @@
         <v>16</v>
       </c>
       <c r="D174" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E174" t="s">
         <v>18</v>
@@ -8233,10 +8233,10 @@
         <v>18</v>
       </c>
       <c r="M174">
-        <v>42.0</v>
+        <v>1.0</v>
       </c>
       <c r="N174" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -8250,16 +8250,16 @@
         <v>16</v>
       </c>
       <c r="D175" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E175" t="s">
         <v>18</v>
       </c>
       <c r="F175">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G175">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H175" t="s">
         <v>19</v>
@@ -8277,7 +8277,7 @@
         <v>18</v>
       </c>
       <c r="M175">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
       <c r="N175" t="s">
         <v>23</v>
@@ -8294,16 +8294,16 @@
         <v>16</v>
       </c>
       <c r="D176" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E176" t="s">
         <v>18</v>
       </c>
       <c r="F176">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G176">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H176" t="s">
         <v>19</v>
@@ -8321,10 +8321,10 @@
         <v>18</v>
       </c>
       <c r="M176">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="N176" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -8338,7 +8338,7 @@
         <v>16</v>
       </c>
       <c r="D177" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E177" t="s">
         <v>18</v>
@@ -8365,10 +8365,10 @@
         <v>18</v>
       </c>
       <c r="M177">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="N177" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -8382,16 +8382,16 @@
         <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E178" t="s">
         <v>18</v>
       </c>
       <c r="F178">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G178">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H178" t="s">
         <v>19</v>
@@ -8409,7 +8409,7 @@
         <v>18</v>
       </c>
       <c r="M178">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="N178" t="s">
         <v>23</v>
@@ -8426,7 +8426,7 @@
         <v>16</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E179" t="s">
         <v>18</v>
@@ -8453,10 +8453,10 @@
         <v>18</v>
       </c>
       <c r="M179">
-        <v>10.0</v>
+        <v>29.0</v>
       </c>
       <c r="N179" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -8602,16 +8602,16 @@
         <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E183" t="s">
         <v>18</v>
       </c>
       <c r="F183">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G183">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H183" t="s">
         <v>19</v>
@@ -8629,7 +8629,7 @@
         <v>19</v>
       </c>
       <c r="M183">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="N183" t="s">
         <v>23</v>
@@ -8646,16 +8646,16 @@
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E184" t="s">
         <v>18</v>
       </c>
       <c r="F184">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G184">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H184" t="s">
         <v>19</v>
@@ -8673,7 +8673,7 @@
         <v>19</v>
       </c>
       <c r="M184">
-        <v>30.0</v>
+        <v>19.0</v>
       </c>
       <c r="N184" t="s">
         <v>23</v>
@@ -8778,16 +8778,16 @@
         <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E187" t="s">
         <v>18</v>
       </c>
       <c r="F187">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G187">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H187" t="s">
         <v>19</v>
@@ -8805,7 +8805,7 @@
         <v>19</v>
       </c>
       <c r="M187">
-        <v>19.0</v>
+        <v>30.0</v>
       </c>
       <c r="N187" t="s">
         <v>23</v>
@@ -8822,16 +8822,16 @@
         <v>16</v>
       </c>
       <c r="D188" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E188" t="s">
         <v>18</v>
       </c>
       <c r="F188">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G188">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H188" t="s">
         <v>19</v>
@@ -8849,10 +8849,10 @@
         <v>19</v>
       </c>
       <c r="M188">
-        <v>25.5</v>
+        <v>20.0</v>
       </c>
       <c r="N188" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -8866,7 +8866,7 @@
         <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E189" t="s">
         <v>18</v>
@@ -8893,10 +8893,10 @@
         <v>19</v>
       </c>
       <c r="M189">
-        <v>42.0</v>
+        <v>25.5</v>
       </c>
       <c r="N189" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -8954,7 +8954,7 @@
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E191" t="s">
         <v>18</v>
@@ -8981,7 +8981,7 @@
         <v>19</v>
       </c>
       <c r="M191">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="N191" t="s">
         <v>23</v>
@@ -8998,7 +8998,7 @@
         <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E192" t="s">
         <v>18</v>
@@ -9025,10 +9025,10 @@
         <v>20</v>
       </c>
       <c r="M192">
-        <v>38.0</v>
+        <v>28.0</v>
       </c>
       <c r="N192" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -9042,16 +9042,16 @@
         <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E193" t="s">
         <v>18</v>
       </c>
       <c r="F193">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G193">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H193" t="s">
         <v>19</v>
@@ -9069,7 +9069,7 @@
         <v>20</v>
       </c>
       <c r="M193">
-        <v>23.0</v>
+        <v>50.0</v>
       </c>
       <c r="N193" t="s">
         <v>23</v>
@@ -9086,7 +9086,7 @@
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E194" t="s">
         <v>18</v>
@@ -9113,10 +9113,10 @@
         <v>20</v>
       </c>
       <c r="M194">
-        <v>10.0</v>
+        <v>23.0</v>
       </c>
       <c r="N194" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -9130,16 +9130,16 @@
         <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E195" t="s">
         <v>18</v>
       </c>
       <c r="F195">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G195">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H195" t="s">
         <v>19</v>
@@ -9157,10 +9157,10 @@
         <v>20</v>
       </c>
       <c r="M195">
-        <v>50.0</v>
+        <v>10.0</v>
       </c>
       <c r="N195" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9218,16 +9218,16 @@
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E197" t="s">
         <v>18</v>
       </c>
       <c r="F197">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G197">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H197" t="s">
         <v>19</v>
@@ -9245,10 +9245,10 @@
         <v>20</v>
       </c>
       <c r="M197">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="N197" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -9262,7 +9262,7 @@
         <v>16</v>
       </c>
       <c r="D198" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E198" t="s">
         <v>18</v>
@@ -9289,7 +9289,7 @@
         <v>20</v>
       </c>
       <c r="M198">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="N198" t="s">
         <v>38</v>
@@ -9306,16 +9306,16 @@
         <v>16</v>
       </c>
       <c r="D199" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E199" t="s">
         <v>18</v>
       </c>
       <c r="F199">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G199">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H199" t="s">
         <v>19</v>
@@ -9333,10 +9333,10 @@
         <v>20</v>
       </c>
       <c r="M199">
-        <v>14.0</v>
+        <v>38.0</v>
       </c>
       <c r="N199" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -9526,16 +9526,16 @@
         <v>16</v>
       </c>
       <c r="D204" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E204" t="s">
         <v>18</v>
       </c>
       <c r="F204">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G204">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H204" t="s">
         <v>19</v>
@@ -9553,10 +9553,10 @@
         <v>21</v>
       </c>
       <c r="M204">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="N204" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -9614,16 +9614,16 @@
         <v>16</v>
       </c>
       <c r="D206" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E206" t="s">
         <v>18</v>
       </c>
       <c r="F206">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G206">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H206" t="s">
         <v>19</v>
@@ -9641,7 +9641,7 @@
         <v>21</v>
       </c>
       <c r="M206">
-        <v>48.5</v>
+        <v>36.0</v>
       </c>
       <c r="N206" t="s">
         <v>23</v>
@@ -9702,16 +9702,16 @@
         <v>16</v>
       </c>
       <c r="D208" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E208" t="s">
         <v>18</v>
       </c>
       <c r="F208">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G208">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H208" t="s">
         <v>19</v>
@@ -9729,7 +9729,7 @@
         <v>21</v>
       </c>
       <c r="M208">
-        <v>17.0</v>
+        <v>47.0</v>
       </c>
       <c r="N208" t="s">
         <v>23</v>
@@ -9746,7 +9746,7 @@
         <v>16</v>
       </c>
       <c r="D209" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E209" t="s">
         <v>18</v>
@@ -9773,10 +9773,10 @@
         <v>21</v>
       </c>
       <c r="M209">
-        <v>25.0</v>
+        <v>48.5</v>
       </c>
       <c r="N209" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -9790,7 +9790,7 @@
         <v>16</v>
       </c>
       <c r="D210" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E210" t="s">
         <v>18</v>
@@ -9817,7 +9817,7 @@
         <v>21</v>
       </c>
       <c r="M210">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="N210" t="s">
         <v>23</v>
@@ -9834,16 +9834,16 @@
         <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E211" t="s">
         <v>18</v>
       </c>
       <c r="F211">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G211">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H211" t="s">
         <v>19</v>
@@ -9861,7 +9861,7 @@
         <v>21</v>
       </c>
       <c r="M211">
-        <v>47.0</v>
+        <v>17.0</v>
       </c>
       <c r="N211" t="s">
         <v>23</v>
@@ -10257,7 +10257,7 @@
         <v>22</v>
       </c>
       <c r="M220">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="N220" t="s">
         <v>23</v>
@@ -10318,16 +10318,16 @@
         <v>16</v>
       </c>
       <c r="D222" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E222" t="s">
         <v>18</v>
       </c>
       <c r="F222">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G222">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H222" t="s">
         <v>19</v>
@@ -10345,7 +10345,7 @@
         <v>23</v>
       </c>
       <c r="M222">
-        <v>40.0</v>
+        <v>60.0</v>
       </c>
       <c r="N222" t="s">
         <v>23</v>
@@ -10362,16 +10362,16 @@
         <v>16</v>
       </c>
       <c r="D223" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E223" t="s">
         <v>18</v>
       </c>
       <c r="F223">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G223">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H223" t="s">
         <v>19</v>
@@ -10389,7 +10389,7 @@
         <v>23</v>
       </c>
       <c r="M223">
-        <v>30.0</v>
+        <v>19.0</v>
       </c>
       <c r="N223" t="s">
         <v>23</v>
@@ -10406,16 +10406,16 @@
         <v>16</v>
       </c>
       <c r="D224" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E224" t="s">
         <v>18</v>
       </c>
       <c r="F224">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G224">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H224" t="s">
         <v>19</v>
@@ -10433,7 +10433,7 @@
         <v>23</v>
       </c>
       <c r="M224">
-        <v>69.0</v>
+        <v>40.0</v>
       </c>
       <c r="N224" t="s">
         <v>23</v>
@@ -10450,16 +10450,16 @@
         <v>16</v>
       </c>
       <c r="D225" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E225" t="s">
         <v>18</v>
       </c>
       <c r="F225">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G225">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H225" t="s">
         <v>19</v>
@@ -10477,7 +10477,7 @@
         <v>23</v>
       </c>
       <c r="M225">
-        <v>78.0</v>
+        <v>37.0</v>
       </c>
       <c r="N225" t="s">
         <v>23</v>
@@ -10538,7 +10538,7 @@
         <v>16</v>
       </c>
       <c r="D227" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E227" t="s">
         <v>18</v>
@@ -10565,7 +10565,7 @@
         <v>23</v>
       </c>
       <c r="M227">
-        <v>42.5</v>
+        <v>69.0</v>
       </c>
       <c r="N227" t="s">
         <v>23</v>
@@ -10582,16 +10582,16 @@
         <v>16</v>
       </c>
       <c r="D228" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E228" t="s">
         <v>18</v>
       </c>
       <c r="F228">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G228">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H228" t="s">
         <v>19</v>
@@ -10609,7 +10609,7 @@
         <v>23</v>
       </c>
       <c r="M228">
-        <v>19.0</v>
+        <v>42.5</v>
       </c>
       <c r="N228" t="s">
         <v>23</v>
@@ -10626,16 +10626,16 @@
         <v>16</v>
       </c>
       <c r="D229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E229" t="s">
         <v>18</v>
       </c>
       <c r="F229">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G229">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H229" t="s">
         <v>19</v>
@@ -10653,7 +10653,7 @@
         <v>23</v>
       </c>
       <c r="M229">
-        <v>37.0</v>
+        <v>78.0</v>
       </c>
       <c r="N229" t="s">
         <v>23</v>
@@ -10670,7 +10670,7 @@
         <v>16</v>
       </c>
       <c r="D230" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E230" t="s">
         <v>18</v>
@@ -10697,7 +10697,7 @@
         <v>23</v>
       </c>
       <c r="M230">
-        <v>70.0</v>
+        <v>30.0</v>
       </c>
       <c r="N230" t="s">
         <v>23</v>
@@ -10714,7 +10714,7 @@
         <v>16</v>
       </c>
       <c r="D231" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E231" t="s">
         <v>18</v>
@@ -10741,7 +10741,7 @@
         <v>23</v>
       </c>
       <c r="M231">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="N231" t="s">
         <v>23</v>
@@ -10846,16 +10846,16 @@
         <v>16</v>
       </c>
       <c r="D234" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E234" t="s">
         <v>18</v>
       </c>
       <c r="F234">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G234">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H234" t="s">
         <v>19</v>
@@ -10873,10 +10873,10 @@
         <v>24</v>
       </c>
       <c r="M234">
-        <v>15.0</v>
+        <v>9.5</v>
       </c>
       <c r="N234" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -10890,7 +10890,7 @@
         <v>16</v>
       </c>
       <c r="D235" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E235" t="s">
         <v>18</v>
@@ -10934,16 +10934,16 @@
         <v>16</v>
       </c>
       <c r="D236" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E236" t="s">
         <v>18</v>
       </c>
       <c r="F236">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G236">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H236" t="s">
         <v>19</v>
@@ -10961,10 +10961,10 @@
         <v>24</v>
       </c>
       <c r="M236">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="N236" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -10978,16 +10978,16 @@
         <v>16</v>
       </c>
       <c r="D237" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E237" t="s">
         <v>18</v>
       </c>
       <c r="F237">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G237">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H237" t="s">
         <v>19</v>
@@ -11005,7 +11005,7 @@
         <v>24</v>
       </c>
       <c r="M237">
-        <v>48.0</v>
+        <v>21.0</v>
       </c>
       <c r="N237" t="s">
         <v>23</v>
@@ -11022,7 +11022,7 @@
         <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E238" t="s">
         <v>18</v>
@@ -11049,7 +11049,7 @@
         <v>24</v>
       </c>
       <c r="M238">
-        <v>9.5</v>
+        <v>18.0</v>
       </c>
       <c r="N238" t="s">
         <v>38</v>
@@ -11066,16 +11066,16 @@
         <v>16</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E239" t="s">
         <v>18</v>
       </c>
       <c r="F239">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G239">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H239" t="s">
         <v>19</v>
@@ -11093,7 +11093,7 @@
         <v>24</v>
       </c>
       <c r="M239">
-        <v>17.0</v>
+        <v>37.0</v>
       </c>
       <c r="N239" t="s">
         <v>23</v>
@@ -11154,7 +11154,7 @@
         <v>16</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E241" t="s">
         <v>18</v>
@@ -11181,7 +11181,7 @@
         <v>24</v>
       </c>
       <c r="M241">
-        <v>37.0</v>
+        <v>48.0</v>
       </c>
       <c r="N241" t="s">
         <v>23</v>
@@ -11198,16 +11198,16 @@
         <v>16</v>
       </c>
       <c r="D242" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E242" t="s">
         <v>18</v>
       </c>
       <c r="F242">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G242">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H242" t="s">
         <v>19</v>
@@ -11225,7 +11225,7 @@
         <v>25</v>
       </c>
       <c r="M242">
-        <v>30.0</v>
+        <v>21.0</v>
       </c>
       <c r="N242" t="s">
         <v>23</v>
@@ -11330,16 +11330,16 @@
         <v>16</v>
       </c>
       <c r="D245" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E245" t="s">
         <v>18</v>
       </c>
       <c r="F245">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G245">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H245" t="s">
         <v>19</v>
@@ -11357,10 +11357,10 @@
         <v>25</v>
       </c>
       <c r="M245">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="N245" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -11374,7 +11374,7 @@
         <v>16</v>
       </c>
       <c r="D246" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E246" t="s">
         <v>18</v>
@@ -11401,10 +11401,10 @@
         <v>25</v>
       </c>
       <c r="M246">
-        <v>28.0</v>
+        <v>58.0</v>
       </c>
       <c r="N246" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -11418,16 +11418,16 @@
         <v>16</v>
       </c>
       <c r="D247" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E247" t="s">
         <v>18</v>
       </c>
       <c r="F247">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G247">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H247" t="s">
         <v>19</v>
@@ -11445,7 +11445,7 @@
         <v>25</v>
       </c>
       <c r="M247">
-        <v>19.0</v>
+        <v>44.0</v>
       </c>
       <c r="N247" t="s">
         <v>23</v>
@@ -11462,16 +11462,16 @@
         <v>16</v>
       </c>
       <c r="D248" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E248" t="s">
         <v>18</v>
       </c>
       <c r="F248">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G248">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H248" t="s">
         <v>19</v>
@@ -11489,7 +11489,7 @@
         <v>25</v>
       </c>
       <c r="M248">
-        <v>58.0</v>
+        <v>27.0</v>
       </c>
       <c r="N248" t="s">
         <v>23</v>
@@ -11506,16 +11506,16 @@
         <v>16</v>
       </c>
       <c r="D249" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E249" t="s">
         <v>18</v>
       </c>
       <c r="F249">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G249">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H249" t="s">
         <v>19</v>
@@ -11533,7 +11533,7 @@
         <v>25</v>
       </c>
       <c r="M249">
-        <v>21.0</v>
+        <v>55.0</v>
       </c>
       <c r="N249" t="s">
         <v>23</v>
@@ -11550,16 +11550,16 @@
         <v>16</v>
       </c>
       <c r="D250" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E250" t="s">
         <v>18</v>
       </c>
       <c r="F250">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G250">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H250" t="s">
         <v>19</v>
@@ -11577,7 +11577,7 @@
         <v>25</v>
       </c>
       <c r="M250">
-        <v>44.0</v>
+        <v>19.0</v>
       </c>
       <c r="N250" t="s">
         <v>23</v>
@@ -11594,7 +11594,7 @@
         <v>16</v>
       </c>
       <c r="D251" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E251" t="s">
         <v>18</v>
@@ -11621,7 +11621,7 @@
         <v>25</v>
       </c>
       <c r="M251">
-        <v>55.0</v>
+        <v>30.0</v>
       </c>
       <c r="N251" t="s">
         <v>23</v>
@@ -11638,16 +11638,16 @@
         <v>16</v>
       </c>
       <c r="D252" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E252" t="s">
         <v>18</v>
       </c>
       <c r="F252">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G252">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H252" t="s">
         <v>19</v>
@@ -11665,7 +11665,7 @@
         <v>26</v>
       </c>
       <c r="M252">
-        <v>4.0</v>
+        <v>5.5</v>
       </c>
       <c r="N252" t="s">
         <v>38</v>
@@ -11682,7 +11682,7 @@
         <v>16</v>
       </c>
       <c r="D253" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E253" t="s">
         <v>18</v>
@@ -11709,10 +11709,10 @@
         <v>26</v>
       </c>
       <c r="M253">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="N253" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -11726,16 +11726,16 @@
         <v>16</v>
       </c>
       <c r="D254" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E254" t="s">
         <v>18</v>
       </c>
       <c r="F254">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G254">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H254" t="s">
         <v>19</v>
@@ -11753,7 +11753,7 @@
         <v>26</v>
       </c>
       <c r="M254">
-        <v>37.0</v>
+        <v>32.0</v>
       </c>
       <c r="N254" t="s">
         <v>23</v>
@@ -11770,7 +11770,7 @@
         <v>16</v>
       </c>
       <c r="D255" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E255" t="s">
         <v>18</v>
@@ -11797,7 +11797,7 @@
         <v>26</v>
       </c>
       <c r="M255">
-        <v>10.0</v>
+        <v>26.0</v>
       </c>
       <c r="N255" t="s">
         <v>38</v>
@@ -11858,16 +11858,16 @@
         <v>16</v>
       </c>
       <c r="D257" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E257" t="s">
         <v>18</v>
       </c>
       <c r="F257">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G257">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H257" t="s">
         <v>19</v>
@@ -11885,10 +11885,10 @@
         <v>26</v>
       </c>
       <c r="M257">
-        <v>5.5</v>
+        <v>25.0</v>
       </c>
       <c r="N257" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -11902,7 +11902,7 @@
         <v>16</v>
       </c>
       <c r="D258" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E258" t="s">
         <v>18</v>
@@ -11929,7 +11929,7 @@
         <v>26</v>
       </c>
       <c r="M258">
-        <v>26.0</v>
+        <v>12.5</v>
       </c>
       <c r="N258" t="s">
         <v>38</v>
@@ -11946,7 +11946,7 @@
         <v>16</v>
       </c>
       <c r="D259" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E259" t="s">
         <v>18</v>
@@ -11973,10 +11973,10 @@
         <v>26</v>
       </c>
       <c r="M259">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="N259" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -11990,16 +11990,16 @@
         <v>16</v>
       </c>
       <c r="D260" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E260" t="s">
         <v>18</v>
       </c>
       <c r="F260">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G260">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H260" t="s">
         <v>19</v>
@@ -12017,7 +12017,7 @@
         <v>26</v>
       </c>
       <c r="M260">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="N260" t="s">
         <v>23</v>
@@ -12034,7 +12034,7 @@
         <v>16</v>
       </c>
       <c r="D261" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E261" t="s">
         <v>18</v>
@@ -12061,7 +12061,7 @@
         <v>26</v>
       </c>
       <c r="M261">
-        <v>12.5</v>
+        <v>10.0</v>
       </c>
       <c r="N261" t="s">
         <v>38</v>
@@ -12078,7 +12078,7 @@
         <v>16</v>
       </c>
       <c r="D262" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E262" t="s">
         <v>18</v>
@@ -12105,7 +12105,7 @@
         <v>27</v>
       </c>
       <c r="M262">
-        <v>29.0</v>
+        <v>18.5</v>
       </c>
       <c r="N262" t="s">
         <v>38</v>
@@ -12122,7 +12122,7 @@
         <v>16</v>
       </c>
       <c r="D263" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E263" t="s">
         <v>18</v>
@@ -12149,7 +12149,7 @@
         <v>27</v>
       </c>
       <c r="M263">
-        <v>18.5</v>
+        <v>5.0</v>
       </c>
       <c r="N263" t="s">
         <v>38</v>
@@ -12166,7 +12166,7 @@
         <v>16</v>
       </c>
       <c r="D264" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E264" t="s">
         <v>18</v>
@@ -12193,10 +12193,10 @@
         <v>27</v>
       </c>
       <c r="M264">
-        <v>3.0</v>
+        <v>17.0</v>
       </c>
       <c r="N264" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -12210,7 +12210,7 @@
         <v>16</v>
       </c>
       <c r="D265" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E265" t="s">
         <v>18</v>
@@ -12237,7 +12237,7 @@
         <v>27</v>
       </c>
       <c r="M265">
-        <v>10.0</v>
+        <v>29.0</v>
       </c>
       <c r="N265" t="s">
         <v>38</v>
@@ -12254,16 +12254,16 @@
         <v>16</v>
       </c>
       <c r="D266" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E266" t="s">
         <v>18</v>
       </c>
       <c r="F266">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G266">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H266" t="s">
         <v>19</v>
@@ -12281,7 +12281,7 @@
         <v>27</v>
       </c>
       <c r="M266">
-        <v>35.0</v>
+        <v>25.0</v>
       </c>
       <c r="N266" t="s">
         <v>23</v>
@@ -12386,16 +12386,16 @@
         <v>16</v>
       </c>
       <c r="D269" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E269" t="s">
         <v>18</v>
       </c>
       <c r="F269">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G269">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H269" t="s">
         <v>19</v>
@@ -12413,10 +12413,10 @@
         <v>27</v>
       </c>
       <c r="M269">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="N269" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -12430,7 +12430,7 @@
         <v>16</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E270" t="s">
         <v>18</v>
@@ -12457,10 +12457,10 @@
         <v>27</v>
       </c>
       <c r="M270">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="N270" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -12474,7 +12474,7 @@
         <v>16</v>
       </c>
       <c r="D271" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E271" t="s">
         <v>18</v>
@@ -12501,10 +12501,10 @@
         <v>27</v>
       </c>
       <c r="M271">
-        <v>5.0</v>
+        <v>35.0</v>
       </c>
       <c r="N271" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -12562,7 +12562,7 @@
         <v>16</v>
       </c>
       <c r="D273" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E273" t="s">
         <v>18</v>
@@ -12589,7 +12589,7 @@
         <v>28</v>
       </c>
       <c r="M273">
-        <v>4.5</v>
+        <v>13.0</v>
       </c>
       <c r="N273" t="s">
         <v>38</v>
@@ -12606,7 +12606,7 @@
         <v>16</v>
       </c>
       <c r="D274" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E274" t="s">
         <v>18</v>
@@ -12633,10 +12633,10 @@
         <v>28</v>
       </c>
       <c r="M274">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="N274" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -12650,7 +12650,7 @@
         <v>16</v>
       </c>
       <c r="D275" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E275" t="s">
         <v>18</v>
@@ -12677,7 +12677,7 @@
         <v>28</v>
       </c>
       <c r="M275">
-        <v>23.0</v>
+        <v>4.5</v>
       </c>
       <c r="N275" t="s">
         <v>38</v>
@@ -12694,16 +12694,16 @@
         <v>16</v>
       </c>
       <c r="D276" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E276" t="s">
         <v>18</v>
       </c>
       <c r="F276">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G276">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H276" t="s">
         <v>19</v>
@@ -12721,10 +12721,10 @@
         <v>28</v>
       </c>
       <c r="M276">
-        <v>35.0</v>
+        <v>23.0</v>
       </c>
       <c r="N276" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -12782,7 +12782,7 @@
         <v>16</v>
       </c>
       <c r="D278" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E278" t="s">
         <v>18</v>
@@ -12809,10 +12809,10 @@
         <v>28</v>
       </c>
       <c r="M278">
-        <v>6.0</v>
+        <v>30.0</v>
       </c>
       <c r="N278" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -12826,7 +12826,7 @@
         <v>16</v>
       </c>
       <c r="D279" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E279" t="s">
         <v>18</v>
@@ -12853,7 +12853,7 @@
         <v>28</v>
       </c>
       <c r="M279">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="N279" t="s">
         <v>23</v>
@@ -12870,7 +12870,7 @@
         <v>16</v>
       </c>
       <c r="D280" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E280" t="s">
         <v>18</v>
@@ -12897,10 +12897,10 @@
         <v>28</v>
       </c>
       <c r="M280">
-        <v>13.0</v>
+        <v>30.0</v>
       </c>
       <c r="N280" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -12914,16 +12914,16 @@
         <v>16</v>
       </c>
       <c r="D281" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E281" t="s">
         <v>18</v>
       </c>
       <c r="F281">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G281">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H281" t="s">
         <v>19</v>
@@ -12941,7 +12941,7 @@
         <v>28</v>
       </c>
       <c r="M281">
-        <v>30.0</v>
+        <v>16.0</v>
       </c>
       <c r="N281" t="s">
         <v>23</v>
@@ -13002,16 +13002,16 @@
         <v>16</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E283" t="s">
         <v>18</v>
       </c>
       <c r="F283">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G283">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H283" t="s">
         <v>19</v>
@@ -13029,10 +13029,10 @@
         <v>29</v>
       </c>
       <c r="M283">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="N283" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="284" spans="1:14">
@@ -13046,16 +13046,16 @@
         <v>16</v>
       </c>
       <c r="D284" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E284" t="s">
         <v>18</v>
       </c>
       <c r="F284">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G284">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H284" t="s">
         <v>19</v>
@@ -13073,7 +13073,7 @@
         <v>29</v>
       </c>
       <c r="M284">
-        <v>20.0</v>
+        <v>60.0</v>
       </c>
       <c r="N284" t="s">
         <v>23</v>
@@ -13090,16 +13090,16 @@
         <v>16</v>
       </c>
       <c r="D285" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E285" t="s">
         <v>18</v>
       </c>
       <c r="F285">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G285">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H285" t="s">
         <v>19</v>
@@ -13117,7 +13117,7 @@
         <v>29</v>
       </c>
       <c r="M285">
-        <v>26.0</v>
+        <v>50.5</v>
       </c>
       <c r="N285" t="s">
         <v>23</v>
@@ -13134,7 +13134,7 @@
         <v>16</v>
       </c>
       <c r="D286" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E286" t="s">
         <v>18</v>
@@ -13161,10 +13161,10 @@
         <v>29</v>
       </c>
       <c r="M286">
-        <v>50.0</v>
+        <v>16.0</v>
       </c>
       <c r="N286" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -13178,7 +13178,7 @@
         <v>16</v>
       </c>
       <c r="D287" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E287" t="s">
         <v>18</v>
@@ -13205,7 +13205,7 @@
         <v>29</v>
       </c>
       <c r="M287">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
       <c r="N287" t="s">
         <v>23</v>
@@ -13222,16 +13222,16 @@
         <v>16</v>
       </c>
       <c r="D288" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E288" t="s">
         <v>18</v>
       </c>
       <c r="F288">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G288">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H288" t="s">
         <v>19</v>
@@ -13249,7 +13249,7 @@
         <v>29</v>
       </c>
       <c r="M288">
-        <v>50.5</v>
+        <v>35.0</v>
       </c>
       <c r="N288" t="s">
         <v>23</v>
@@ -13266,7 +13266,7 @@
         <v>16</v>
       </c>
       <c r="D289" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E289" t="s">
         <v>18</v>
@@ -13293,10 +13293,10 @@
         <v>29</v>
       </c>
       <c r="M289">
-        <v>60.0</v>
+        <v>11.0</v>
       </c>
       <c r="N289" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -13310,16 +13310,16 @@
         <v>16</v>
       </c>
       <c r="D290" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E290" t="s">
         <v>18</v>
       </c>
       <c r="F290">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G290">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H290" t="s">
         <v>19</v>
@@ -13337,10 +13337,10 @@
         <v>29</v>
       </c>
       <c r="M290">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="N290" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -13354,16 +13354,16 @@
         <v>16</v>
       </c>
       <c r="D291" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E291" t="s">
         <v>18</v>
       </c>
       <c r="F291">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G291">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H291" t="s">
         <v>19</v>
@@ -13381,10 +13381,10 @@
         <v>29</v>
       </c>
       <c r="M291">
-        <v>11.0</v>
+        <v>36.0</v>
       </c>
       <c r="N291" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -13398,16 +13398,16 @@
         <v>16</v>
       </c>
       <c r="D292" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E292" t="s">
         <v>18</v>
       </c>
       <c r="F292">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G292">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H292" t="s">
         <v>19</v>
@@ -13425,10 +13425,10 @@
         <v>30</v>
       </c>
       <c r="M292">
-        <v>14.0</v>
+        <v>41.0</v>
       </c>
       <c r="N292" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -13442,7 +13442,7 @@
         <v>16</v>
       </c>
       <c r="D293" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E293" t="s">
         <v>18</v>
@@ -13469,10 +13469,10 @@
         <v>30</v>
       </c>
       <c r="M293">
-        <v>15.0</v>
+        <v>37.0</v>
       </c>
       <c r="N293" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -13486,16 +13486,16 @@
         <v>16</v>
       </c>
       <c r="D294" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E294" t="s">
         <v>18</v>
       </c>
       <c r="F294">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G294">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H294" t="s">
         <v>19</v>
@@ -13513,7 +13513,7 @@
         <v>30</v>
       </c>
       <c r="M294">
-        <v>13.5</v>
+        <v>15.0</v>
       </c>
       <c r="N294" t="s">
         <v>38</v>
@@ -13530,16 +13530,16 @@
         <v>16</v>
       </c>
       <c r="D295" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E295" t="s">
         <v>18</v>
       </c>
       <c r="F295">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G295">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H295" t="s">
         <v>19</v>
@@ -13557,7 +13557,7 @@
         <v>30</v>
       </c>
       <c r="M295">
-        <v>41.0</v>
+        <v>53.0</v>
       </c>
       <c r="N295" t="s">
         <v>23</v>
@@ -13574,16 +13574,16 @@
         <v>16</v>
       </c>
       <c r="D296" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E296" t="s">
         <v>18</v>
       </c>
       <c r="F296">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G296">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H296" t="s">
         <v>19</v>
@@ -13601,7 +13601,7 @@
         <v>30</v>
       </c>
       <c r="M296">
-        <v>53.0</v>
+        <v>43.0</v>
       </c>
       <c r="N296" t="s">
         <v>23</v>
@@ -13618,16 +13618,16 @@
         <v>16</v>
       </c>
       <c r="D297" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E297" t="s">
         <v>18</v>
       </c>
       <c r="F297">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G297">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H297" t="s">
         <v>19</v>
@@ -13645,10 +13645,10 @@
         <v>30</v>
       </c>
       <c r="M297">
-        <v>35.0</v>
+        <v>14.0</v>
       </c>
       <c r="N297" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -13662,7 +13662,7 @@
         <v>16</v>
       </c>
       <c r="D298" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E298" t="s">
         <v>18</v>
@@ -13689,7 +13689,7 @@
         <v>30</v>
       </c>
       <c r="M298">
-        <v>41.0</v>
+        <v>47.5</v>
       </c>
       <c r="N298" t="s">
         <v>23</v>
@@ -13706,7 +13706,7 @@
         <v>16</v>
       </c>
       <c r="D299" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E299" t="s">
         <v>18</v>
@@ -13733,7 +13733,7 @@
         <v>30</v>
       </c>
       <c r="M299">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="N299" t="s">
         <v>23</v>
@@ -13750,16 +13750,16 @@
         <v>16</v>
       </c>
       <c r="D300" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E300" t="s">
         <v>18</v>
       </c>
       <c r="F300">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G300">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H300" t="s">
         <v>19</v>
@@ -13777,7 +13777,7 @@
         <v>30</v>
       </c>
       <c r="M300">
-        <v>47.5</v>
+        <v>35.0</v>
       </c>
       <c r="N300" t="s">
         <v>23</v>
@@ -13794,7 +13794,7 @@
         <v>16</v>
       </c>
       <c r="D301" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E301" t="s">
         <v>18</v>
@@ -13821,10 +13821,10 @@
         <v>30</v>
       </c>
       <c r="M301">
-        <v>43.0</v>
+        <v>13.5</v>
       </c>
       <c r="N301" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -13838,7 +13838,7 @@
         <v>16</v>
       </c>
       <c r="D302" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E302" t="s">
         <v>18</v>
@@ -13865,10 +13865,10 @@
         <v>31</v>
       </c>
       <c r="M302">
-        <v>10.0</v>
+        <v>52.5</v>
       </c>
       <c r="N302" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -13882,16 +13882,16 @@
         <v>16</v>
       </c>
       <c r="D303" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E303" t="s">
         <v>18</v>
       </c>
       <c r="F303">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G303">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H303" t="s">
         <v>19</v>
@@ -13909,7 +13909,7 @@
         <v>31</v>
       </c>
       <c r="M303">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="N303" t="s">
         <v>38</v>
@@ -13926,7 +13926,7 @@
         <v>16</v>
       </c>
       <c r="D304" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E304" t="s">
         <v>18</v>
@@ -13953,7 +13953,7 @@
         <v>31</v>
       </c>
       <c r="M304">
-        <v>15.0</v>
+        <v>31.0</v>
       </c>
       <c r="N304" t="s">
         <v>23</v>
@@ -13970,16 +13970,16 @@
         <v>16</v>
       </c>
       <c r="D305" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E305" t="s">
         <v>18</v>
       </c>
       <c r="F305">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G305">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H305" t="s">
         <v>19</v>
@@ -13997,7 +13997,7 @@
         <v>31</v>
       </c>
       <c r="M305">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="N305" t="s">
         <v>38</v>
@@ -14014,7 +14014,7 @@
         <v>16</v>
       </c>
       <c r="D306" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E306" t="s">
         <v>18</v>
@@ -14041,10 +14041,10 @@
         <v>31</v>
       </c>
       <c r="M306">
-        <v>44.0</v>
+        <v>10.0</v>
       </c>
       <c r="N306" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -14058,7 +14058,7 @@
         <v>16</v>
       </c>
       <c r="D307" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E307" t="s">
         <v>18</v>
@@ -14085,10 +14085,10 @@
         <v>31</v>
       </c>
       <c r="M307">
-        <v>52.5</v>
+        <v>20.0</v>
       </c>
       <c r="N307" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -14102,7 +14102,7 @@
         <v>16</v>
       </c>
       <c r="D308" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E308" t="s">
         <v>18</v>
@@ -14129,7 +14129,7 @@
         <v>31</v>
       </c>
       <c r="M308">
-        <v>45.0</v>
+        <v>44.0</v>
       </c>
       <c r="N308" t="s">
         <v>23</v>
@@ -14146,16 +14146,16 @@
         <v>16</v>
       </c>
       <c r="D309" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E309" t="s">
         <v>18</v>
       </c>
       <c r="F309">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G309">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H309" t="s">
         <v>19</v>
@@ -14173,10 +14173,10 @@
         <v>31</v>
       </c>
       <c r="M309">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="N309" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -14190,7 +14190,7 @@
         <v>16</v>
       </c>
       <c r="D310" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E310" t="s">
         <v>18</v>
@@ -14217,7 +14217,7 @@
         <v>31</v>
       </c>
       <c r="M310">
-        <v>31.0</v>
+        <v>41.0</v>
       </c>
       <c r="N310" t="s">
         <v>23</v>
@@ -14234,16 +14234,16 @@
         <v>16</v>
       </c>
       <c r="D311" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E311" t="s">
         <v>18</v>
       </c>
       <c r="F311">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G311">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H311" t="s">
         <v>19</v>
@@ -14261,7 +14261,7 @@
         <v>31</v>
       </c>
       <c r="M311">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="N311" t="s">
         <v>23</v>
@@ -14278,16 +14278,16 @@
         <v>16</v>
       </c>
       <c r="D312" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E312" t="s">
         <v>18</v>
       </c>
       <c r="F312">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G312">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H312" t="s">
         <v>19</v>
@@ -14305,10 +14305,10 @@
         <v>32</v>
       </c>
       <c r="M312">
-        <v>40.0</v>
+        <v>25.5</v>
       </c>
       <c r="N312" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -14322,16 +14322,16 @@
         <v>16</v>
       </c>
       <c r="D313" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E313" t="s">
         <v>18</v>
       </c>
       <c r="F313">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G313">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H313" t="s">
         <v>19</v>
@@ -14349,10 +14349,10 @@
         <v>32</v>
       </c>
       <c r="M313">
-        <v>25.5</v>
+        <v>40.0</v>
       </c>
       <c r="N313" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -14366,16 +14366,16 @@
         <v>16</v>
       </c>
       <c r="D314" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E314" t="s">
         <v>18</v>
       </c>
       <c r="F314">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G314">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H314" t="s">
         <v>19</v>
@@ -14393,7 +14393,7 @@
         <v>32</v>
       </c>
       <c r="M314">
-        <v>15.0</v>
+        <v>45.0</v>
       </c>
       <c r="N314" t="s">
         <v>23</v>
@@ -14410,16 +14410,16 @@
         <v>16</v>
       </c>
       <c r="D315" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E315" t="s">
         <v>18</v>
       </c>
       <c r="F315">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G315">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H315" t="s">
         <v>19</v>
@@ -14437,7 +14437,7 @@
         <v>32</v>
       </c>
       <c r="M315">
-        <v>29.0</v>
+        <v>10.0</v>
       </c>
       <c r="N315" t="s">
         <v>38</v>
@@ -14454,7 +14454,7 @@
         <v>16</v>
       </c>
       <c r="D316" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E316" t="s">
         <v>18</v>
@@ -14481,7 +14481,7 @@
         <v>32</v>
       </c>
       <c r="M316">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="N316" t="s">
         <v>38</v>
@@ -14498,7 +14498,7 @@
         <v>16</v>
       </c>
       <c r="D317" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E317" t="s">
         <v>18</v>
@@ -14525,10 +14525,10 @@
         <v>32</v>
       </c>
       <c r="M317">
-        <v>45.0</v>
+        <v>17.0</v>
       </c>
       <c r="N317" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -14542,16 +14542,16 @@
         <v>16</v>
       </c>
       <c r="D318" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E318" t="s">
         <v>18</v>
       </c>
       <c r="F318">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G318">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H318" t="s">
         <v>19</v>
@@ -14569,10 +14569,10 @@
         <v>32</v>
       </c>
       <c r="M318">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="N318" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -14586,16 +14586,16 @@
         <v>16</v>
       </c>
       <c r="D319" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E319" t="s">
         <v>18</v>
       </c>
       <c r="F319">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G319">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H319" t="s">
         <v>19</v>
@@ -14613,10 +14613,10 @@
         <v>32</v>
       </c>
       <c r="M319">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="N319" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -14674,7 +14674,7 @@
         <v>16</v>
       </c>
       <c r="D321" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E321" t="s">
         <v>18</v>
@@ -14701,10 +14701,10 @@
         <v>32</v>
       </c>
       <c r="M321">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="N321" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -14718,7 +14718,7 @@
         <v>16</v>
       </c>
       <c r="D322" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E322" t="s">
         <v>18</v>
@@ -14745,7 +14745,7 @@
         <v>33</v>
       </c>
       <c r="M322">
-        <v>70.5</v>
+        <v>63.0</v>
       </c>
       <c r="N322" t="s">
         <v>23</v>
@@ -14762,7 +14762,7 @@
         <v>16</v>
       </c>
       <c r="D323" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E323" t="s">
         <v>18</v>
@@ -14789,7 +14789,7 @@
         <v>33</v>
       </c>
       <c r="M323">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
       <c r="N323" t="s">
         <v>23</v>
@@ -14850,7 +14850,7 @@
         <v>16</v>
       </c>
       <c r="D325" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E325" t="s">
         <v>18</v>
@@ -14877,7 +14877,7 @@
         <v>33</v>
       </c>
       <c r="M325">
-        <v>43.0</v>
+        <v>70.5</v>
       </c>
       <c r="N325" t="s">
         <v>23</v>
@@ -14894,16 +14894,16 @@
         <v>16</v>
       </c>
       <c r="D326" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E326" t="s">
         <v>18</v>
       </c>
       <c r="F326">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G326">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H326" t="s">
         <v>19</v>
@@ -14921,7 +14921,7 @@
         <v>33</v>
       </c>
       <c r="M326">
-        <v>34.5</v>
+        <v>52.5</v>
       </c>
       <c r="N326" t="s">
         <v>23</v>
@@ -14938,7 +14938,7 @@
         <v>16</v>
       </c>
       <c r="D327" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E327" t="s">
         <v>18</v>
@@ -14965,7 +14965,7 @@
         <v>33</v>
       </c>
       <c r="M327">
-        <v>63.0</v>
+        <v>43.0</v>
       </c>
       <c r="N327" t="s">
         <v>23</v>
@@ -14982,16 +14982,16 @@
         <v>16</v>
       </c>
       <c r="D328" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E328" t="s">
         <v>18</v>
       </c>
       <c r="F328">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G328">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H328" t="s">
         <v>19</v>
@@ -15009,7 +15009,7 @@
         <v>33</v>
       </c>
       <c r="M328">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="N328" t="s">
         <v>23</v>
@@ -15026,16 +15026,16 @@
         <v>16</v>
       </c>
       <c r="D329" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E329" t="s">
         <v>18</v>
       </c>
       <c r="F329">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G329">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H329" t="s">
         <v>19</v>
@@ -15053,7 +15053,7 @@
         <v>33</v>
       </c>
       <c r="M329">
-        <v>52.5</v>
+        <v>34.0</v>
       </c>
       <c r="N329" t="s">
         <v>23</v>
@@ -15070,16 +15070,16 @@
         <v>16</v>
       </c>
       <c r="D330" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E330" t="s">
         <v>18</v>
       </c>
       <c r="F330">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G330">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H330" t="s">
         <v>19</v>
@@ -15097,7 +15097,7 @@
         <v>33</v>
       </c>
       <c r="M330">
-        <v>67.0</v>
+        <v>34.5</v>
       </c>
       <c r="N330" t="s">
         <v>23</v>
@@ -15114,7 +15114,7 @@
         <v>16</v>
       </c>
       <c r="D331" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E331" t="s">
         <v>18</v>
@@ -15141,7 +15141,7 @@
         <v>33</v>
       </c>
       <c r="M331">
-        <v>36.0</v>
+        <v>67.0</v>
       </c>
       <c r="N331" t="s">
         <v>23</v>
@@ -15158,16 +15158,16 @@
         <v>16</v>
       </c>
       <c r="D332" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E332" t="s">
         <v>18</v>
       </c>
       <c r="F332">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G332">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H332" t="s">
         <v>19</v>
@@ -15185,7 +15185,7 @@
         <v>34</v>
       </c>
       <c r="M332">
-        <v>25.0</v>
+        <v>2.0</v>
       </c>
       <c r="N332" t="s">
         <v>38</v>
@@ -15202,16 +15202,16 @@
         <v>16</v>
       </c>
       <c r="D333" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E333" t="s">
         <v>18</v>
       </c>
       <c r="F333">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G333">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H333" t="s">
         <v>19</v>
@@ -15229,7 +15229,7 @@
         <v>34</v>
       </c>
       <c r="M333">
-        <v>2.0</v>
+        <v>15.0</v>
       </c>
       <c r="N333" t="s">
         <v>38</v>
@@ -15246,16 +15246,16 @@
         <v>16</v>
       </c>
       <c r="D334" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E334" t="s">
         <v>18</v>
       </c>
       <c r="F334">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G334">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H334" t="s">
         <v>19</v>
@@ -15273,10 +15273,10 @@
         <v>34</v>
       </c>
       <c r="M334">
-        <v>14.0</v>
+        <v>36.0</v>
       </c>
       <c r="N334" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -15290,16 +15290,16 @@
         <v>16</v>
       </c>
       <c r="D335" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E335" t="s">
         <v>18</v>
       </c>
       <c r="F335">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G335">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H335" t="s">
         <v>19</v>
@@ -15317,7 +15317,7 @@
         <v>34</v>
       </c>
       <c r="M335">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="N335" t="s">
         <v>23</v>
@@ -15334,16 +15334,16 @@
         <v>16</v>
       </c>
       <c r="D336" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E336" t="s">
         <v>18</v>
       </c>
       <c r="F336">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G336">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H336" t="s">
         <v>19</v>
@@ -15361,10 +15361,10 @@
         <v>34</v>
       </c>
       <c r="M336">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="N336" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="337" spans="1:14">
@@ -15378,16 +15378,16 @@
         <v>16</v>
       </c>
       <c r="D337" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E337" t="s">
         <v>18</v>
       </c>
       <c r="F337">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G337">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H337" t="s">
         <v>19</v>
@@ -15405,7 +15405,7 @@
         <v>34</v>
       </c>
       <c r="M337">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="N337" t="s">
         <v>38</v>
@@ -15422,16 +15422,16 @@
         <v>16</v>
       </c>
       <c r="D338" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E338" t="s">
         <v>18</v>
       </c>
       <c r="F338">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G338">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H338" t="s">
         <v>19</v>
@@ -15449,10 +15449,10 @@
         <v>34</v>
       </c>
       <c r="M338">
-        <v>4.0</v>
+        <v>28.0</v>
       </c>
       <c r="N338" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="339" spans="1:14">
@@ -15466,16 +15466,16 @@
         <v>16</v>
       </c>
       <c r="D339" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E339" t="s">
         <v>18</v>
       </c>
       <c r="F339">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G339">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H339" t="s">
         <v>19</v>
@@ -15493,10 +15493,10 @@
         <v>34</v>
       </c>
       <c r="M339">
-        <v>36.0</v>
+        <v>25.0</v>
       </c>
       <c r="N339" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -15510,7 +15510,7 @@
         <v>16</v>
       </c>
       <c r="D340" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E340" t="s">
         <v>18</v>
@@ -15537,10 +15537,10 @@
         <v>34</v>
       </c>
       <c r="M340">
-        <v>15.0</v>
+        <v>30.0</v>
       </c>
       <c r="N340" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -15554,7 +15554,7 @@
         <v>16</v>
       </c>
       <c r="D341" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E341" t="s">
         <v>18</v>
@@ -15581,7 +15581,7 @@
         <v>34</v>
       </c>
       <c r="M341">
-        <v>30.0</v>
+        <v>42.0</v>
       </c>
       <c r="N341" t="s">
         <v>23</v>
@@ -15845,10 +15845,10 @@
         <v>35</v>
       </c>
       <c r="M347">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="N347" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="348" spans="1:14">
@@ -16038,16 +16038,16 @@
         <v>16</v>
       </c>
       <c r="D352" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E352" t="s">
         <v>18</v>
       </c>
       <c r="F352">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G352">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H352" t="s">
         <v>19</v>
@@ -16082,16 +16082,16 @@
         <v>16</v>
       </c>
       <c r="D353" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E353" t="s">
         <v>18</v>
       </c>
       <c r="F353">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G353">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H353" t="s">
         <v>19</v>
@@ -16109,7 +16109,7 @@
         <v>36</v>
       </c>
       <c r="M353">
-        <v>25.0</v>
+        <v>51.0</v>
       </c>
       <c r="N353" t="s">
         <v>23</v>
@@ -16126,7 +16126,7 @@
         <v>16</v>
       </c>
       <c r="D354" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E354" t="s">
         <v>18</v>
@@ -16141,7 +16141,7 @@
         <v>19</v>
       </c>
       <c r="I354" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J354" t="s">
         <v>21</v>
@@ -16153,10 +16153,10 @@
         <v>36</v>
       </c>
       <c r="M354">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="N354" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="355" spans="1:14">
@@ -16170,7 +16170,7 @@
         <v>16</v>
       </c>
       <c r="D355" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E355" t="s">
         <v>18</v>
@@ -16214,7 +16214,7 @@
         <v>16</v>
       </c>
       <c r="D356" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E356" t="s">
         <v>18</v>
@@ -16229,7 +16229,7 @@
         <v>19</v>
       </c>
       <c r="I356" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J356" t="s">
         <v>21</v>
@@ -16241,10 +16241,10 @@
         <v>36</v>
       </c>
       <c r="M356">
-        <v>18.5</v>
+        <v>0.0</v>
       </c>
       <c r="N356" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="357" spans="1:14">
@@ -16258,22 +16258,22 @@
         <v>16</v>
       </c>
       <c r="D357" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E357" t="s">
         <v>18</v>
       </c>
       <c r="F357">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G357">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H357" t="s">
         <v>19</v>
       </c>
       <c r="I357" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J357" t="s">
         <v>21</v>
@@ -16285,10 +16285,10 @@
         <v>36</v>
       </c>
       <c r="M357">
-        <v>0.0</v>
+        <v>18.5</v>
       </c>
       <c r="N357" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="358" spans="1:14">
@@ -16302,22 +16302,22 @@
         <v>16</v>
       </c>
       <c r="D358" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E358" t="s">
         <v>18</v>
       </c>
       <c r="F358">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G358">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H358" t="s">
         <v>19</v>
       </c>
       <c r="I358" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J358" t="s">
         <v>21</v>
@@ -16329,10 +16329,10 @@
         <v>36</v>
       </c>
       <c r="M358">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="N358" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="359" spans="1:14">
@@ -16346,7 +16346,7 @@
         <v>16</v>
       </c>
       <c r="D359" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E359" t="s">
         <v>18</v>
@@ -16361,7 +16361,7 @@
         <v>19</v>
       </c>
       <c r="I359" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J359" t="s">
         <v>21</v>
@@ -16373,10 +16373,10 @@
         <v>36</v>
       </c>
       <c r="M359">
-        <v>38.5</v>
+        <v>0.0</v>
       </c>
       <c r="N359" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="360" spans="1:14">
@@ -16390,7 +16390,7 @@
         <v>16</v>
       </c>
       <c r="D360" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E360" t="s">
         <v>18</v>
@@ -16417,7 +16417,7 @@
         <v>36</v>
       </c>
       <c r="M360">
-        <v>64.0</v>
+        <v>49.0</v>
       </c>
       <c r="N360" t="s">
         <v>23</v>
@@ -16434,22 +16434,22 @@
         <v>16</v>
       </c>
       <c r="D361" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E361" t="s">
         <v>18</v>
       </c>
       <c r="F361">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G361">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H361" t="s">
         <v>19</v>
       </c>
       <c r="I361" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J361" t="s">
         <v>21</v>
@@ -16461,10 +16461,10 @@
         <v>36</v>
       </c>
       <c r="M361">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="N361" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="362" spans="1:14">
@@ -16478,7 +16478,7 @@
         <v>16</v>
       </c>
       <c r="D362" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E362" t="s">
         <v>18</v>
@@ -16493,7 +16493,7 @@
         <v>19</v>
       </c>
       <c r="I362" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J362" t="s">
         <v>21</v>
@@ -16505,7 +16505,7 @@
         <v>36</v>
       </c>
       <c r="M362">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="N362" t="s">
         <v>23</v>
@@ -16522,7 +16522,7 @@
         <v>16</v>
       </c>
       <c r="D363" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E363" t="s">
         <v>18</v>
@@ -16566,7 +16566,7 @@
         <v>16</v>
       </c>
       <c r="D364" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E364" t="s">
         <v>18</v>
@@ -16581,7 +16581,7 @@
         <v>19</v>
       </c>
       <c r="I364" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J364" t="s">
         <v>21</v>
@@ -16593,10 +16593,10 @@
         <v>36</v>
       </c>
       <c r="M364">
-        <v>49.0</v>
+        <v>0.0</v>
       </c>
       <c r="N364" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="365" spans="1:14">
@@ -16610,7 +16610,7 @@
         <v>16</v>
       </c>
       <c r="D365" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E365" t="s">
         <v>18</v>
@@ -16637,7 +16637,7 @@
         <v>36</v>
       </c>
       <c r="M365">
-        <v>48.0</v>
+        <v>40.0</v>
       </c>
       <c r="N365" t="s">
         <v>23</v>
@@ -16654,16 +16654,16 @@
         <v>16</v>
       </c>
       <c r="D366" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E366" t="s">
         <v>18</v>
       </c>
       <c r="F366">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G366">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H366" t="s">
         <v>19</v>
@@ -16681,7 +16681,7 @@
         <v>36</v>
       </c>
       <c r="M366">
-        <v>40.0</v>
+        <v>31.0</v>
       </c>
       <c r="N366" t="s">
         <v>23</v>
@@ -16713,7 +16713,7 @@
         <v>19</v>
       </c>
       <c r="I367" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J367" t="s">
         <v>21</v>
@@ -16725,7 +16725,7 @@
         <v>36</v>
       </c>
       <c r="M367">
-        <v>31.0</v>
+        <v>26.0</v>
       </c>
       <c r="N367" t="s">
         <v>23</v>
@@ -16742,7 +16742,7 @@
         <v>16</v>
       </c>
       <c r="D368" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E368" t="s">
         <v>18</v>
@@ -16786,22 +16786,22 @@
         <v>16</v>
       </c>
       <c r="D369" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E369" t="s">
         <v>18</v>
       </c>
       <c r="F369">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G369">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H369" t="s">
         <v>19</v>
       </c>
       <c r="I369" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J369" t="s">
         <v>21</v>
@@ -16813,10 +16813,10 @@
         <v>36</v>
       </c>
       <c r="M369">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="N369" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="370" spans="1:14">
@@ -16830,7 +16830,7 @@
         <v>16</v>
       </c>
       <c r="D370" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E370" t="s">
         <v>18</v>
@@ -16845,7 +16845,7 @@
         <v>19</v>
       </c>
       <c r="I370" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J370" t="s">
         <v>21</v>
@@ -16857,10 +16857,10 @@
         <v>36</v>
       </c>
       <c r="M370">
-        <v>0.0</v>
+        <v>38.5</v>
       </c>
       <c r="N370" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="371" spans="1:14">
@@ -16874,22 +16874,22 @@
         <v>16</v>
       </c>
       <c r="D371" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E371" t="s">
         <v>18</v>
       </c>
       <c r="F371">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G371">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H371" t="s">
         <v>19</v>
       </c>
       <c r="I371" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J371" t="s">
         <v>21</v>
@@ -16901,10 +16901,10 @@
         <v>36</v>
       </c>
       <c r="M371">
-        <v>51.0</v>
+        <v>0.0</v>
       </c>
       <c r="N371" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="372" spans="1:14">
@@ -16918,16 +16918,16 @@
         <v>16</v>
       </c>
       <c r="D372" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E372" t="s">
         <v>18</v>
       </c>
       <c r="F372">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G372">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H372" t="s">
         <v>19</v>
@@ -16945,10 +16945,10 @@
         <v>37</v>
       </c>
       <c r="M372">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="N372" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="373" spans="1:14">
@@ -16962,16 +16962,16 @@
         <v>16</v>
       </c>
       <c r="D373" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E373" t="s">
         <v>18</v>
       </c>
       <c r="F373">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G373">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H373" t="s">
         <v>19</v>
@@ -16989,7 +16989,7 @@
         <v>37</v>
       </c>
       <c r="M373">
-        <v>29.0</v>
+        <v>65.0</v>
       </c>
       <c r="N373" t="s">
         <v>23</v>
@@ -17006,7 +17006,7 @@
         <v>16</v>
       </c>
       <c r="D374" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E374" t="s">
         <v>18</v>
@@ -17033,10 +17033,10 @@
         <v>37</v>
       </c>
       <c r="M374">
-        <v>45.5</v>
+        <v>21.0</v>
       </c>
       <c r="N374" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="375" spans="1:14">
@@ -17050,16 +17050,16 @@
         <v>16</v>
       </c>
       <c r="D375" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E375" t="s">
         <v>18</v>
       </c>
       <c r="F375">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G375">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H375" t="s">
         <v>19</v>
@@ -17077,7 +17077,7 @@
         <v>37</v>
       </c>
       <c r="M375">
-        <v>28.0</v>
+        <v>44.0</v>
       </c>
       <c r="N375" t="s">
         <v>23</v>
@@ -17138,16 +17138,16 @@
         <v>16</v>
       </c>
       <c r="D377" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E377" t="s">
         <v>18</v>
       </c>
       <c r="F377">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G377">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H377" t="s">
         <v>19</v>
@@ -17165,7 +17165,7 @@
         <v>37</v>
       </c>
       <c r="M377">
-        <v>51.0</v>
+        <v>28.0</v>
       </c>
       <c r="N377" t="s">
         <v>23</v>
@@ -17182,7 +17182,7 @@
         <v>16</v>
       </c>
       <c r="D378" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E378" t="s">
         <v>18</v>
@@ -17209,7 +17209,7 @@
         <v>37</v>
       </c>
       <c r="M378">
-        <v>44.0</v>
+        <v>51.0</v>
       </c>
       <c r="N378" t="s">
         <v>23</v>
@@ -17226,7 +17226,7 @@
         <v>16</v>
       </c>
       <c r="D379" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E379" t="s">
         <v>18</v>
@@ -17253,10 +17253,10 @@
         <v>37</v>
       </c>
       <c r="M379">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="N379" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="380" spans="1:14">
@@ -17270,16 +17270,16 @@
         <v>16</v>
       </c>
       <c r="D380" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E380" t="s">
         <v>18</v>
       </c>
       <c r="F380">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G380">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H380" t="s">
         <v>19</v>
@@ -17297,7 +17297,7 @@
         <v>37</v>
       </c>
       <c r="M380">
-        <v>20.0</v>
+        <v>45.5</v>
       </c>
       <c r="N380" t="s">
         <v>23</v>
@@ -17314,16 +17314,16 @@
         <v>16</v>
       </c>
       <c r="D381" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E381" t="s">
         <v>18</v>
       </c>
       <c r="F381">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G381">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H381" t="s">
         <v>19</v>
@@ -17341,10 +17341,10 @@
         <v>37</v>
       </c>
       <c r="M381">
-        <v>21.0</v>
+        <v>29.0</v>
       </c>
       <c r="N381" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="382" spans="1:14">
@@ -17358,16 +17358,16 @@
         <v>16</v>
       </c>
       <c r="D382" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E382" t="s">
         <v>18</v>
       </c>
       <c r="F382">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G382">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H382" t="s">
         <v>19</v>
@@ -17385,7 +17385,7 @@
         <v>39</v>
       </c>
       <c r="M382">
-        <v>38.0</v>
+        <v>25.0</v>
       </c>
       <c r="N382" t="s">
         <v>23</v>
@@ -17446,16 +17446,16 @@
         <v>16</v>
       </c>
       <c r="D384" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E384" t="s">
         <v>18</v>
       </c>
       <c r="F384">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G384">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H384" t="s">
         <v>19</v>
@@ -17473,7 +17473,7 @@
         <v>39</v>
       </c>
       <c r="M384">
-        <v>44.0</v>
+        <v>15.0</v>
       </c>
       <c r="N384" t="s">
         <v>23</v>
@@ -17490,16 +17490,16 @@
         <v>16</v>
       </c>
       <c r="D385" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E385" t="s">
         <v>18</v>
       </c>
       <c r="F385">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G385">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H385" t="s">
         <v>19</v>
@@ -17517,7 +17517,7 @@
         <v>39</v>
       </c>
       <c r="M385">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
       <c r="N385" t="s">
         <v>23</v>
@@ -17534,16 +17534,16 @@
         <v>16</v>
       </c>
       <c r="D386" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E386" t="s">
         <v>18</v>
       </c>
       <c r="F386">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G386">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H386" t="s">
         <v>19</v>
@@ -17561,7 +17561,7 @@
         <v>39</v>
       </c>
       <c r="M386">
-        <v>52.0</v>
+        <v>34.0</v>
       </c>
       <c r="N386" t="s">
         <v>23</v>
@@ -17578,16 +17578,16 @@
         <v>16</v>
       </c>
       <c r="D387" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E387" t="s">
         <v>18</v>
       </c>
       <c r="F387">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G387">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H387" t="s">
         <v>19</v>
@@ -17605,7 +17605,7 @@
         <v>39</v>
       </c>
       <c r="M387">
-        <v>25.0</v>
+        <v>37.0</v>
       </c>
       <c r="N387" t="s">
         <v>23</v>
@@ -17622,7 +17622,7 @@
         <v>16</v>
       </c>
       <c r="D388" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E388" t="s">
         <v>18</v>
@@ -17649,7 +17649,7 @@
         <v>39</v>
       </c>
       <c r="M388">
-        <v>37.0</v>
+        <v>52.0</v>
       </c>
       <c r="N388" t="s">
         <v>23</v>
@@ -17710,7 +17710,7 @@
         <v>16</v>
       </c>
       <c r="D390" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E390" t="s">
         <v>18</v>
@@ -17737,7 +17737,7 @@
         <v>39</v>
       </c>
       <c r="M390">
-        <v>65.0</v>
+        <v>44.0</v>
       </c>
       <c r="N390" t="s">
         <v>23</v>
@@ -17754,16 +17754,16 @@
         <v>16</v>
       </c>
       <c r="D391" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E391" t="s">
         <v>18</v>
       </c>
       <c r="F391">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G391">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H391" t="s">
         <v>19</v>
@@ -17781,7 +17781,7 @@
         <v>39</v>
       </c>
       <c r="M391">
-        <v>15.0</v>
+        <v>65.0</v>
       </c>
       <c r="N391" t="s">
         <v>23</v>
@@ -17798,16 +17798,16 @@
         <v>16</v>
       </c>
       <c r="D392" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E392" t="s">
         <v>18</v>
       </c>
       <c r="F392">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G392">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H392" t="s">
         <v>19</v>
@@ -17825,7 +17825,7 @@
         <v>40</v>
       </c>
       <c r="M392">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="N392" t="s">
         <v>23</v>
@@ -17842,16 +17842,16 @@
         <v>16</v>
       </c>
       <c r="D393" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E393" t="s">
         <v>18</v>
       </c>
       <c r="F393">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G393">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H393" t="s">
         <v>19</v>
@@ -17869,10 +17869,10 @@
         <v>40</v>
       </c>
       <c r="M393">
-        <v>41.0</v>
+        <v>13.5</v>
       </c>
       <c r="N393" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="394" spans="1:14">
@@ -17886,16 +17886,16 @@
         <v>16</v>
       </c>
       <c r="D394" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E394" t="s">
         <v>18</v>
       </c>
       <c r="F394">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G394">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H394" t="s">
         <v>19</v>
@@ -17913,7 +17913,7 @@
         <v>40</v>
       </c>
       <c r="M394">
-        <v>28.0</v>
+        <v>32.5</v>
       </c>
       <c r="N394" t="s">
         <v>23</v>
@@ -17930,16 +17930,16 @@
         <v>16</v>
       </c>
       <c r="D395" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E395" t="s">
         <v>18</v>
       </c>
       <c r="F395">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G395">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H395" t="s">
         <v>19</v>
@@ -17957,10 +17957,10 @@
         <v>40</v>
       </c>
       <c r="M395">
-        <v>3.0</v>
+        <v>25.0</v>
       </c>
       <c r="N395" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="396" spans="1:14">
@@ -17974,16 +17974,16 @@
         <v>16</v>
       </c>
       <c r="D396" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E396" t="s">
         <v>18</v>
       </c>
       <c r="F396">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G396">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H396" t="s">
         <v>19</v>
@@ -18001,7 +18001,7 @@
         <v>40</v>
       </c>
       <c r="M396">
-        <v>13.5</v>
+        <v>3.0</v>
       </c>
       <c r="N396" t="s">
         <v>38</v>
@@ -18018,7 +18018,7 @@
         <v>16</v>
       </c>
       <c r="D397" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E397" t="s">
         <v>18</v>
@@ -18045,7 +18045,7 @@
         <v>40</v>
       </c>
       <c r="M397">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="N397" t="s">
         <v>23</v>
@@ -18062,16 +18062,16 @@
         <v>16</v>
       </c>
       <c r="D398" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E398" t="s">
         <v>18</v>
       </c>
       <c r="F398">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G398">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H398" t="s">
         <v>19</v>
@@ -18089,7 +18089,7 @@
         <v>40</v>
       </c>
       <c r="M398">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="N398" t="s">
         <v>23</v>
@@ -18106,7 +18106,7 @@
         <v>16</v>
       </c>
       <c r="D399" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E399" t="s">
         <v>18</v>
@@ -18133,10 +18133,10 @@
         <v>40</v>
       </c>
       <c r="M399">
-        <v>41.0</v>
+        <v>2.0</v>
       </c>
       <c r="N399" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="400" spans="1:14">
@@ -18150,7 +18150,7 @@
         <v>16</v>
       </c>
       <c r="D400" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E400" t="s">
         <v>18</v>
@@ -18177,10 +18177,10 @@
         <v>40</v>
       </c>
       <c r="M400">
-        <v>2.0</v>
+        <v>41.0</v>
       </c>
       <c r="N400" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="401" spans="1:14">
@@ -18194,7 +18194,7 @@
         <v>16</v>
       </c>
       <c r="D401" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E401" t="s">
         <v>18</v>
@@ -18221,7 +18221,7 @@
         <v>40</v>
       </c>
       <c r="M401">
-        <v>32.5</v>
+        <v>41.0</v>
       </c>
       <c r="N401" t="s">
         <v>23</v>
@@ -18238,16 +18238,16 @@
         <v>16</v>
       </c>
       <c r="D402" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E402" t="s">
         <v>18</v>
       </c>
       <c r="F402">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G402">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H402" t="s">
         <v>19</v>
@@ -18265,7 +18265,7 @@
         <v>41</v>
       </c>
       <c r="M402">
-        <v>61.0</v>
+        <v>27.0</v>
       </c>
       <c r="N402" t="s">
         <v>23</v>
@@ -18282,16 +18282,16 @@
         <v>16</v>
       </c>
       <c r="D403" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E403" t="s">
         <v>18</v>
       </c>
       <c r="F403">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G403">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H403" t="s">
         <v>19</v>
@@ -18309,10 +18309,10 @@
         <v>41</v>
       </c>
       <c r="M403">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="N403" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="404" spans="1:14">
@@ -18326,16 +18326,16 @@
         <v>16</v>
       </c>
       <c r="D404" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E404" t="s">
         <v>18</v>
       </c>
       <c r="F404">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G404">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H404" t="s">
         <v>19</v>
@@ -18353,7 +18353,7 @@
         <v>41</v>
       </c>
       <c r="M404">
-        <v>65.5</v>
+        <v>25.0</v>
       </c>
       <c r="N404" t="s">
         <v>23</v>
@@ -18370,16 +18370,16 @@
         <v>16</v>
       </c>
       <c r="D405" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E405" t="s">
         <v>18</v>
       </c>
       <c r="F405">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G405">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H405" t="s">
         <v>19</v>
@@ -18397,7 +18397,7 @@
         <v>41</v>
       </c>
       <c r="M405">
-        <v>20.0</v>
+        <v>70.0</v>
       </c>
       <c r="N405" t="s">
         <v>23</v>
@@ -18414,16 +18414,16 @@
         <v>16</v>
       </c>
       <c r="D406" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E406" t="s">
         <v>18</v>
       </c>
       <c r="F406">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G406">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H406" t="s">
         <v>19</v>
@@ -18441,10 +18441,10 @@
         <v>41</v>
       </c>
       <c r="M406">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
       <c r="N406" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="407" spans="1:14">
@@ -18458,7 +18458,7 @@
         <v>16</v>
       </c>
       <c r="D407" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E407" t="s">
         <v>18</v>
@@ -18485,7 +18485,7 @@
         <v>41</v>
       </c>
       <c r="M407">
-        <v>70.0</v>
+        <v>61.0</v>
       </c>
       <c r="N407" t="s">
         <v>23</v>
@@ -18502,16 +18502,16 @@
         <v>16</v>
       </c>
       <c r="D408" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E408" t="s">
         <v>18</v>
       </c>
       <c r="F408">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G408">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H408" t="s">
         <v>19</v>
@@ -18529,7 +18529,7 @@
         <v>41</v>
       </c>
       <c r="M408">
-        <v>36.0</v>
+        <v>65.5</v>
       </c>
       <c r="N408" t="s">
         <v>23</v>
@@ -18546,7 +18546,7 @@
         <v>16</v>
       </c>
       <c r="D409" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E409" t="s">
         <v>18</v>
@@ -18573,10 +18573,10 @@
         <v>41</v>
       </c>
       <c r="M409">
-        <v>24.0</v>
+        <v>67.0</v>
       </c>
       <c r="N409" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="410" spans="1:14">
@@ -18590,16 +18590,16 @@
         <v>16</v>
       </c>
       <c r="D410" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E410" t="s">
         <v>18</v>
       </c>
       <c r="F410">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G410">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H410" t="s">
         <v>19</v>
@@ -18617,10 +18617,10 @@
         <v>41</v>
       </c>
       <c r="M410">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="N410" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="411" spans="1:14">
@@ -18634,16 +18634,16 @@
         <v>16</v>
       </c>
       <c r="D411" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E411" t="s">
         <v>18</v>
       </c>
       <c r="F411">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G411">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H411" t="s">
         <v>19</v>
@@ -18661,7 +18661,7 @@
         <v>41</v>
       </c>
       <c r="M411">
-        <v>67.0</v>
+        <v>36.0</v>
       </c>
       <c r="N411" t="s">
         <v>23</v>
@@ -18678,16 +18678,16 @@
         <v>16</v>
       </c>
       <c r="D412" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E412" t="s">
         <v>18</v>
       </c>
       <c r="F412">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G412">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H412" t="s">
         <v>19</v>
@@ -18705,7 +18705,7 @@
         <v>42</v>
       </c>
       <c r="M412">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="N412" t="s">
         <v>38</v>
@@ -18722,7 +18722,7 @@
         <v>16</v>
       </c>
       <c r="D413" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E413" t="s">
         <v>18</v>
@@ -18749,7 +18749,7 @@
         <v>42</v>
       </c>
       <c r="M413">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="N413" t="s">
         <v>38</v>
@@ -18766,7 +18766,7 @@
         <v>16</v>
       </c>
       <c r="D414" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E414" t="s">
         <v>18</v>
@@ -18793,7 +18793,7 @@
         <v>42</v>
       </c>
       <c r="M414">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="N414" t="s">
         <v>38</v>
@@ -18810,7 +18810,7 @@
         <v>16</v>
       </c>
       <c r="D415" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E415" t="s">
         <v>18</v>
@@ -18837,7 +18837,7 @@
         <v>42</v>
       </c>
       <c r="M415">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="N415" t="s">
         <v>38</v>
@@ -18854,16 +18854,16 @@
         <v>16</v>
       </c>
       <c r="D416" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E416" t="s">
         <v>18</v>
       </c>
       <c r="F416">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G416">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H416" t="s">
         <v>19</v>
@@ -18881,7 +18881,7 @@
         <v>42</v>
       </c>
       <c r="M416">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="N416" t="s">
         <v>38</v>
@@ -18898,16 +18898,16 @@
         <v>16</v>
       </c>
       <c r="D417" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E417" t="s">
         <v>18</v>
       </c>
       <c r="F417">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G417">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H417" t="s">
         <v>19</v>
@@ -18942,16 +18942,16 @@
         <v>16</v>
       </c>
       <c r="D418" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E418" t="s">
         <v>18</v>
       </c>
       <c r="F418">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G418">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H418" t="s">
         <v>19</v>
@@ -18969,10 +18969,10 @@
         <v>42</v>
       </c>
       <c r="M418">
-        <v>14.0</v>
+        <v>25.0</v>
       </c>
       <c r="N418" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="419" spans="1:14">
@@ -19013,7 +19013,7 @@
         <v>42</v>
       </c>
       <c r="M419">
-        <v>16.0</v>
+        <v>25.0</v>
       </c>
       <c r="N419" t="s">
         <v>23</v>
@@ -19074,7 +19074,7 @@
         <v>16</v>
       </c>
       <c r="D421" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E421" t="s">
         <v>18</v>
@@ -19101,10 +19101,10 @@
         <v>42</v>
       </c>
       <c r="M421">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="N421" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
